--- a/Selenium_Framework/PythonDemo.xlsx
+++ b/Selenium_Framework/PythonDemo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -31,22 +31,55 @@
     <t xml:space="preserve">Lname</t>
   </si>
   <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test1</t>
   </si>
   <si>
-    <t xml:space="preserve">Shank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalra</t>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
   </si>
   <si>
     <t xml:space="preserve">Test2</t>
   </si>
   <si>
-    <t xml:space="preserve">Cherry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singh</t>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test10</t>
   </si>
 </sst>
 </file>
@@ -154,15 +187,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
@@ -178,27 +211,148 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium_Framework/PythonDemo.xlsx
+++ b/Selenium_Framework/PythonDemo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -28,58 +28,76 @@
     <t xml:space="preserve">Fname</t>
   </si>
   <si>
-    <t xml:space="preserve">Lname</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test1</t>
   </si>
   <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
+    <t xml:space="preserve">Shank1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
   </si>
   <si>
     <t xml:space="preserve">Test2</t>
   </si>
   <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
+    <t xml:space="preserve">Shank2</t>
   </si>
   <si>
     <t xml:space="preserve">Test3</t>
   </si>
   <si>
+    <t xml:space="preserve">Shank3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test4</t>
   </si>
   <si>
+    <t xml:space="preserve">Shank4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test5</t>
   </si>
   <si>
+    <t xml:space="preserve">Shank5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test6</t>
   </si>
   <si>
+    <t xml:space="preserve">Shank6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test7</t>
   </si>
   <si>
+    <t xml:space="preserve">Shank7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test8</t>
   </si>
   <si>
+    <t xml:space="preserve">Shank8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test9</t>
   </si>
   <si>
+    <t xml:space="preserve">Shank9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shank10</t>
   </si>
 </sst>
 </file>
@@ -190,12 +208,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
@@ -215,7 +233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -229,7 +247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -237,46 +255,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
@@ -285,26 +303,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
@@ -313,26 +331,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
@@ -341,21 +359,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="s@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="s@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="s@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="s@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId5" display="s@gmail.com"/>
+    <hyperlink ref="C7" r:id="rId6" display="s@gmail.com"/>
+    <hyperlink ref="C8" r:id="rId7" display="s@gmail.com"/>
+    <hyperlink ref="C9" r:id="rId8" display="s@gmail.com"/>
+    <hyperlink ref="C10" r:id="rId9" display="s@gmail.com"/>
+    <hyperlink ref="C11" r:id="rId10" display="s@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Selenium_Framework/PythonDemo.xlsx
+++ b/Selenium_Framework/PythonDemo.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Fname</t>
+    <t xml:space="preserve">FirstName</t>
   </si>
   <si>
     <t xml:space="preserve">Email</t>
@@ -179,12 +179,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -208,12 +212,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
@@ -223,13 +227,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
